--- a/biology/Zoologie/Virginie_Courtier-Orgogozo/Virginie_Courtier-Orgogozo.xlsx
+++ b/biology/Zoologie/Virginie_Courtier-Orgogozo/Virginie_Courtier-Orgogozo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Virginie Courtier-Orgogozo est une chercheuse française. Elle est directrice de recherche au CNRS et responsable de l'équipe Évolution des drosophiles à l'Institut Jacques-Monod[1]. Ses recherches portent sur les mécanismes de l'évolution, la génétique et le forçage génétique[2],[3]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Virginie Courtier-Orgogozo est une chercheuse française. Elle est directrice de recherche au CNRS et responsable de l'équipe Évolution des drosophiles à l'Institut Jacques-Monod. Ses recherches portent sur les mécanismes de l'évolution, la génétique et le forçage génétique,. 
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Médaille de bronze du CNRS (2014)[4]
-Prix Irène-Joliot-Curie de la jeune femme scientifique de l'année 2014 pour ses travaux d’analyse sur les mutations responsables de changements apparus au cours de l'évolution de plusieurs espèces de mouches drosophiles[5]
-Chevalière de l'Ordre national du Mérite (2015)[6]
-Prix Lacassagne, Collège de France (2018)[7],[8]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Médaille de bronze du CNRS (2014)
+Prix Irène-Joliot-Curie de la jeune femme scientifique de l'année 2014 pour ses travaux d’analyse sur les mutations responsables de changements apparus au cours de l'évolution de plusieurs espèces de mouches drosophiles
+Chevalière de l'Ordre national du Mérite (2015)
+Prix Lacassagne, Collège de France (2018),</t>
         </is>
       </c>
     </row>
